--- a/data/trans_bre/P12B1_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,64</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,47</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,27</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>165,43%</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,62%</t>
+          <t>181,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,45%</t>
+          <t>75,66%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,98%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>163,34%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 68,06</t>
+          <t>-0,83; 6,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 62,36</t>
+          <t>-1,55; 4,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 67,3</t>
+          <t>-5,02; 4,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,38; 1330,94</t>
+          <t>-0,09; 10,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 339,14</t>
+          <t>-58,84; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 372,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-65,67; 150,41</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-36,32; 1291,91</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>-6,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-63,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>105,74%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 35,43</t>
+          <t>-4,21; 4,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 44,71</t>
+          <t>-4,32; 3,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 39,99</t>
+          <t>-7,5; 0,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 99,41</t>
+          <t>-2,65; 22,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 219,63</t>
+          <t>-72,43; 367,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,01; 139,12</t>
+          <t>-81,42; 271,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 121,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-59,81; 1259,07</t>
         </is>
       </c>
     </row>
@@ -764,22 +820,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,73</t>
+          <t>-13,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-43,45</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -789,7 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,83%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-51,19%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,79</t>
+          <t>-31,22; -2,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>-23,02; 0,0</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-78,57; 83,43</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 142,64</t>
+          <t>-14,68; 5,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-29,02%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>99,77%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 36,25</t>
+          <t>-2,86; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 44,62</t>
+          <t>-2,63; 2,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 42,98</t>
+          <t>-4,56; 1,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 117,48</t>
+          <t>-0,37; 11,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 184,91</t>
+          <t>-57,15; 135,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 160,74</t>
+          <t>-62,16; 135,62</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-70,58; 43,34</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; 492,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12B1_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>181,9%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>75,66%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>163,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.205039708029116</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.244951437476363</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2172255836401002</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.603391215050196</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.761528257176394</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6164532056223789</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.04258624853126541</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.140840625420052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 6,14</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 4,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 4,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 10,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-58,84; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-65,67; 150,41</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-36,32; 1291,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.9044747917006826</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.131445706044726</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.900180897747637</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.7021514352890721</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.5665189620938699</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6507212953710942</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1978581746672227</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.499066694151532</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.479582188103238</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.063038703219087</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.74369628841854</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.420796599872114</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>18.52090375025512</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,01</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,44%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-6,29%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-63,16%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>105,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 4,88</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 3,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; 0,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 22,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-72,43; 367,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-81,42; 271,0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 121,4</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-59,81; 1259,07</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.428162568492077</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6005748580366655</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.960032744560038</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.609093289420811</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1293996344534062</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1892963178569567</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.6365219185476914</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7791152205715091</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-13,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-51,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.055265008135144</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.300735861417082</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.417236944326891</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.002893968200101</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7352566242539457</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7758275173890208</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6485401561719256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-31,22; -2,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-23,02; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 5,29</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.32445932713415</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.330486342662686</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3717048222101</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.92759029521017</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.696639659051737</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.575388160268361</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.048678318245619</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>9.779291349882767</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +821,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,16%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,79%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-29,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>99,77%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-11.8093423761427</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.659469357474633</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.495658626323663</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-0.4833068715550475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 2,56</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 2,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 1,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 11,25</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-57,15; 135,26</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-62,16; 135,62</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-70,58; 43,34</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-21,03; 492,7</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-27.98367284778766</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-21.15807416341918</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>-13.93912396103178</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.43419764842502</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>5.494065733301585</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.02655593051227728</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2459540525097538</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.286962085708756</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.441543927837216</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.008314646555365787</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.08506203127477847</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2951753954276393</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9876031329733255</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.410395682317144</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.168610606651675</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.492262174376683</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4452508431814826</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5583535220009042</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5647470988706216</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7196491174986616</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2086831216310459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.462195349659728</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.748957205325097</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.032343333611572</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.716122920341492</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.421489324666154</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.727564894311741</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3541266925519981</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.495671201792926</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +997,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
